--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr3_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr3_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,63 +247,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="14.64453125" customWidth="true"/>
+    <col min="3" max="3" width="15.64453125" customWidth="true"/>
     <col min="4" max="4" width="16.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
     <col min="7" max="7" width="15.64453125" customWidth="true"/>
-    <col min="8" max="8" width="15.77734375" customWidth="true"/>
+    <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.64453125" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
     <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.30611059364223248</v>
+        <v>0.30576588088686174</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.31077545186710842</v>
+        <v>0.31046575992863684</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0052353953646304052</v>
+        <v>0.0052631441190767025</v>
       </c>
       <c r="E3" s="0">
-        <v>8.1186818721246904e-05</v>
+        <v>8.3588420587149757e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00058527163678847346</v>
+        <v>-0.00058967503387399021</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00045860921158070425</v>
+        <v>0.00046297587793289144</v>
       </c>
       <c r="H3" s="0">
-        <v>-1.1940998438689349e-05</v>
+        <v>-1.1753283809791451e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00073975241955461023</v>
+        <v>-0.00073503222393723924</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.00022663188472538121</v>
+        <v>0.00022663116579935139</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.30564231385492274</v>
+        <v>0.30393216462848821</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0023407689227918776</v>
+        <v>0.00090252997277516511</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-5.0351572171880499e-05</v>
+        <v>-5.023030075853678e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>-1.2463603354373937e-06</v>
+        <v>-6.1619797262288005e-07</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-5.1185636318994978e-05</v>
+        <v>-5.0041462580220938e-05</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0078912462401744456</v>
+        <v>-0.0078803319398413861</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00062292939008990996</v>
+        <v>0.00064790412900696769</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00010280651606670022</v>
+        <v>-0.00010280950077801165</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.30797482305164953</v>
+        <v>0.30834276212373102</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0096266993166775321</v>
+        <v>0.011692943188638956</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.00042843147748191019</v>
+        <v>-0.00040550181421698589</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.00039913623346021397</v>
+        <v>-0.00040264955344633112</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00015345292227605592</v>
+        <v>-0.00015791745228401117</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0040746192296116654</v>
+        <v>-0.0040787838319227953</v>
       </c>
       <c r="H5" s="0">
-        <v>-9.9023795812078403e-05</v>
+        <v>-9.938378300906623e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.001861076141577646</v>
+        <v>-0.001859650665458323</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.00027845031973117162</v>
+        <v>-0.00027845859305863918</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.60897346588234247</v>
+        <v>0.61185645010195466</v>
       </c>
       <c r="C6" s="0">
-        <v>0.31924801737255681</v>
+        <v>0.32199791205547379</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.00014288560100039283</v>
+        <v>0.0001429174456966906</v>
       </c>
       <c r="F6" s="0">
-        <v>0.00039218822560753983</v>
+        <v>0.00039093356577873169</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-3.6849374249391378e-05</v>
+        <v>-3.6903510707989071e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.021864209323174968</v>
+        <v>-0.022097730003007542</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.0031166103289525515</v>
+        <v>0.0031165584249899791</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.55741951250414523</v>
+        <v>0.55962024650337816</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.062532561589716942</v>
+        <v>-0.063080327283940738</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0013308438404839207</v>
+        <v>-0.0013567467280900249</v>
       </c>
       <c r="F7" s="0">
-        <v>0.00022104571526923716</v>
+        <v>0.00012208805077388601</v>
       </c>
       <c r="G7" s="0">
-        <v>0.009952985972825526</v>
+        <v>0.0099497944291381014</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0030295253833525328</v>
+        <v>0.0030230783853363863</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.00089410501944364729</v>
+        <v>-0.00089409045179411617</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.48394416684911712</v>
+        <v>0.4852234681787444</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.024531866920605071</v>
+        <v>-0.025677709479293917</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.00028188505651062306</v>
+        <v>-0.00028201542103144884</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.010536205297087993</v>
+        <v>-0.010545518306450377</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>0.00040625762898952858</v>
+        <v>0.00040552304044529346</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.046277168924818188</v>
+        <v>-0.046042630836053727</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0077455229150042992</v>
+        <v>0.0077455726777504452</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.22743421174637068</v>
+        <v>0.22698478444323969</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.12462547144022068</v>
+        <v>-0.12538222183268616</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.014461542390642811</v>
+        <v>-0.014578990558991903</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.11961779511802921</v>
+        <v>-0.12041697630361164</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.010308154985687479</v>
+        <v>-0.010337403290284935</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0029616869193061571</v>
+        <v>-0.0029904994238212344</v>
       </c>
       <c r="I9" s="0">
-        <v>0.01479624000932378</v>
+        <v>0.014798950369230802</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.00066845574181612077</v>
+        <v>0.00066845730466036368</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.17606512177016082</v>
+        <v>0.18114489418002133</v>
       </c>
       <c r="C10" s="0">
-        <v>-0.02265525481440938</v>
+        <v>-0.017019655257419539</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00067485875079049344</v>
+        <v>-0.00067484597710490435</v>
       </c>
       <c r="F10" s="0">
-        <v>0.0012743385033096499</v>
+        <v>0.0012773662494507589</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.00049176611798269494</v>
+        <v>-0.00049180207807552451</v>
       </c>
       <c r="I10" s="0">
-        <v>0.019491558079849619</v>
+        <v>0.019305146343412315</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.046645106479725598</v>
+        <v>-0.046568153052318317</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.001668000396460978</v>
+        <v>-0.0016679464911631692</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.29636913784745395</v>
+        <v>0.30294688496131761</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.10066000874145289</v>
+        <v>0.10072589207687527</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.011427107858679781</v>
+        <v>-0.011280713449467518</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.013884318925441728</v>
+        <v>-0.012938212997743821</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.01052702850102152</v>
+        <v>-0.010533261544408794</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.0038981184189816466</v>
+        <v>-0.0038601518714950385</v>
       </c>
       <c r="I11" s="0">
-        <v>0.12106051578308774</v>
+        <v>0.12136835921309526</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.061679934743122833</v>
+        <v>-0.061679920645559078</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.16137574692466894</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.082293056628746863</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>-8.6220111764897546e-05</v>
+      </c>
+      <c r="F12" s="0">
+        <v>6.6153082503548103e-05</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-7.0768508345464705e-05</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.037696454107885725</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.021490791762409256</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr3_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr3_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,63 +388,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="15.64453125" customWidth="true"/>
+    <col min="3" max="3" width="14.64453125" customWidth="true"/>
     <col min="4" max="4" width="16.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.64453125" customWidth="true"/>
+    <col min="7" max="7" width="15.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.046875" customWidth="true"/>
+    <col min="10" max="10" width="15.64453125" customWidth="true"/>
     <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.30576588088686174</v>
+        <v>0.30553458419375357</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.31046575992863684</v>
+        <v>0.31026641438162866</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0052631441190767025</v>
+        <v>0.0052677010608757928</v>
       </c>
       <c r="E3" s="0">
-        <v>8.3588420587149757e-05</v>
+        <v>8.2172995768701638e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00058967503387399021</v>
+        <v>-0.00058497868464463341</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00046297587793289144</v>
+        <v>0.00047238388395749796</v>
       </c>
       <c r="H3" s="0">
-        <v>-1.1753283809791451e-05</v>
+        <v>-1.1751533474313705e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00073503222393723924</v>
+        <v>-0.00072032849225227855</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.00022663116579935139</v>
+        <v>0.00022663095764430263</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.30393216462848821</v>
+        <v>0.30492650995299692</v>
       </c>
       <c r="C4" s="0">
-        <v>0.00090252997277516511</v>
+        <v>0.00211322058990248</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-5.023030075853678e-05</v>
+        <v>-5.026632514363639e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>-6.1619797262288005e-07</v>
+        <v>-7.4310137670515201e-07</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-5.0041462580220938e-05</v>
+        <v>-4.9362070247868828e-05</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0078803319398413861</v>
+        <v>-0.0078944648361098015</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00064790412900696769</v>
+        <v>0.00064458471055186281</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00010280950077801165</v>
+        <v>-0.00010287339620806968</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.30834276212373102</v>
+        <v>0.3072709764658591</v>
       </c>
       <c r="C5" s="0">
-        <v>0.011692943188638956</v>
+        <v>0.009617731266430089</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.00040550181421698589</v>
+        <v>-0.00038133361576577396</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.00040264955344633112</v>
+        <v>-0.00039923192868017036</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00015791745228401117</v>
+        <v>-0.0001521963491914145</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0040787838319227953</v>
+        <v>-0.0041043082829660838</v>
       </c>
       <c r="H5" s="0">
-        <v>-9.938378300906623e-05</v>
+        <v>-9.9066769878214026e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.001859650665458323</v>
+        <v>-0.0018586827203810918</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.00027845859305863918</v>
+        <v>-0.00027844508670515911</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.61185645010195466</v>
+        <v>0.6142544154049393</v>
       </c>
       <c r="C6" s="0">
-        <v>0.32199791205547379</v>
+        <v>0.32552323516585807</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.0001429174456966906</v>
+        <v>0.00014293243523362238</v>
       </c>
       <c r="F6" s="0">
-        <v>0.00039093356577873169</v>
+        <v>0.00038863356583354787</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-3.6903510707989071e-05</v>
+        <v>-3.6723840980294024e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.022097730003007542</v>
+        <v>-0.022151178281255866</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.0031165584249899791</v>
+        <v>0.0031165398943910905</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.55962024650337816</v>
+        <v>0.56180945515824376</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.063080327283940738</v>
+        <v>-0.063228964278355268</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0013567467280900249</v>
+        <v>-0.0013814719118343012</v>
       </c>
       <c r="F7" s="0">
-        <v>0.00012208805077388601</v>
+        <v>5.3137202101447451e-05</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0099497944291381014</v>
+        <v>0.0099792555052372958</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0030230783853363863</v>
+        <v>0.0030271696934021314</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.00089409045179411617</v>
+        <v>-0.00089408645724686764</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.4852234681787444</v>
+        <v>0.4742451241592926</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.025677709479293917</v>
+        <v>-0.039230972281688078</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.00028201542103144884</v>
+        <v>-0.00028249977658976165</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.010545518306450377</v>
+        <v>-0.010564773419865493</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>0.00040552304044529346</v>
+        <v>0.00040481844697815559</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.046042630836053727</v>
+        <v>-0.045636556442082289</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0077455726777504452</v>
+        <v>0.0077456524742962607</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.22698478444323969</v>
+        <v>0.21685465203269649</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.12538222183268616</v>
+        <v>-0.12418453596664793</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.014578990558991903</v>
+        <v>-0.01464625122687328</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.12041697630361164</v>
+        <v>-0.12076544393155014</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.010337403290284935</v>
+        <v>-0.010257917201163307</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0029904994238212344</v>
+        <v>-0.0030026822447625913</v>
       </c>
       <c r="I9" s="0">
-        <v>0.014798950369230802</v>
+        <v>0.014797937517212839</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.00066845730466036368</v>
+        <v>0.00066842092718827351</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.18114489418002133</v>
+        <v>0.17153001391241079</v>
       </c>
       <c r="C10" s="0">
-        <v>-0.017019655257419539</v>
+        <v>-0.017184896980988289</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00067484597710490435</v>
+        <v>-0.00067440276588656776</v>
       </c>
       <c r="F10" s="0">
-        <v>0.0012773662494507589</v>
+        <v>0.0013299119892364237</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.00049180207807552451</v>
+        <v>-0.00049127955812628213</v>
       </c>
       <c r="I10" s="0">
-        <v>0.019305146343412315</v>
+        <v>0.019522561624926028</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.046568153052318317</v>
+        <v>-0.046158564594565903</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.0016679464911631692</v>
+        <v>-0.0016679678348811011</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.30294688496131761</v>
+        <v>0.29957764973964829</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.10072589207687527</v>
+        <v>0.10372933670816825</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.011280713449467518</v>
+        <v>-0.010938780472104963</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.012938212997743821</v>
+        <v>-0.011113243529291094</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.010533261544408794</v>
+        <v>-0.010476282712710085</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.0038601518714950385</v>
+        <v>-0.0037975428286461999</v>
       </c>
       <c r="I11" s="0">
-        <v>0.12136835921309526</v>
+        <v>0.12232410058939742</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.061679920645559078</v>
+        <v>-0.061679951927575832</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.16137574692466894</v>
+        <v>0.14125591580046451</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.082293056628746863</v>
+        <v>-0.11330391789480294</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>-8.6220111764897546e-05</v>
+        <v>-0.00013375199864902533</v>
       </c>
       <c r="F12" s="0">
-        <v>6.6153082503548103e-05</v>
+        <v>-0.017668772898731047</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-7.0768508345464705e-05</v>
+        <v>-0.0078830097748332321</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.037696454107885725</v>
+        <v>0.0016677506876602959</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.021490791762409256</v>
+        <v>-0.021000032059827811</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.30105259683514302</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.10619560385241436</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.06118141366183414</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.06380059451414774</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.002757369800565344</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.0057111335509592021</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0.0046572923918008274</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.25576204789258461</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.29029937099594227</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0.036814123863761088</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.00033480387163475141</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.0003894044079290859</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>-6.5737510948517692e-05</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.046646170827205541</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-0.0001312330852439314</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr3_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr3_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.30553458419375357</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.31026641438162866</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.30492650995299692</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.3072709764658591</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.6142544154049393</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.56180945515824376</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.4742451241592926</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.21685465203269649</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.17153001391241079</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.29957764973964829</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.14125591580046451</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.30105259683514302</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.29029937099594227</v>
+        <v>0.30293263627797601</v>
       </c>
       <c r="C14" s="0">
-        <v>0.036814123863761088</v>
+        <v>0.05419153491598877</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.00033480387163475141</v>
+        <v>-0.00031952693590763935</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.0003894044079290859</v>
+        <v>-0.0033573889865135828</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-6.5737510948517692e-05</v>
+        <v>-0.0090516959933612563</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.046646170827205541</v>
+        <v>-0.022308810448322412</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-0.0001312330852439314</v>
+        <v>-0.01727407310905088</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.20189839439023438</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.37036975517660858</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.0038036871039591447</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.043403398968756883</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.001544923498253982</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.17560591085465355</v>
       </c>
     </row>
   </sheetData>
